--- a/Lab 1/results/Official Results/SortingAlgoResults.xlsx
+++ b/Lab 1/results/Official Results/SortingAlgoResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grey Bunny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grey Bunny\Desktop\SC2001-Labs\Lab 1\results\Official Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1723F001-BBEA-4F5B-9983-8DA6887C7C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D615130-7E36-4CA3-B2DA-6F247C0F57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{60781CAE-1847-41F4-91EF-95FAC6767A81}"/>
   </bookViews>
@@ -10964,6 +10964,4014 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Time Taken(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR">
+                <a:latin typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>μ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG">
+                <a:latin typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>s)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t>/ Chunksize (S)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35707562265429532"/>
+          <c:y val="1.1887288183300112E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n = 1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$2:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n = 2000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$12:$C$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n = 4000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$22:$C$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$22:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>n = 8000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$32:$C$41</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$32:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>n = 16000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$42:$C$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$42:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>n = 32000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$52:$C$61</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$52:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>n = 64000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$62:$C$71</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$62:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>n = 128000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$72:$C$81</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$72:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>n = 256000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$82:$C$91</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$82:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>n = 512000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$92:$C$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$92:$C$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>82460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>n = 1024000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$102:$C$111</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$102:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>172238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>n = 2048000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$112:$C$121</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$112:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>354055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>n = 4096000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$122:$C$131</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$122:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>744466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>724104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>694326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>688716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>702591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>n = 8192000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$132:$C$141</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$132:$C$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1535046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1486132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1713833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1853991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1903731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>n = 10000000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$C$142:$C$151</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$C$142:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2471496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2439806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2365747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2316149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0ED0-4457-AF6E-A5670D1ACBDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1248142543"/>
+        <c:axId val="1248141103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1248142543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-SG"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>scale</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> of log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="-25000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SG"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248141103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1248141103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> taken(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SG"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248142543"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>No.of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> Comparisons/ Chunksize (S)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n = 1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$2:$D$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n = 2000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$12:$D$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n = 4000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$22:$D$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$22:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>n = 8000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$32:$D$41</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$32:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>93694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>n = 16000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$42:$D$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$42:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>203396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>n = 32000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$52:$D$61</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$52:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>438850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>452184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>588535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>n = 64000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$62:$D$71</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$62:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>941376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>968211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1044982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1242699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>n = 128000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$72:$D$81</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$72:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2010529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2217653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2610397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>n = 256000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$82:$D$91</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$82:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4276938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4292083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4383806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4690208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5474416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>n = 512000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$92:$D$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$92:$D$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9065548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9095691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9280834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9892298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11454522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>n = 1024000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$102:$D$111</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$102:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19154632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19214695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19585012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20811239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23931569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>n = 2048000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$112:$D$121</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$112:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40355995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40475139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41217228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43664397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49906527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>n = 4096000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$122:$D$131</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$122:$D$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>84808606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85046920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86532820</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91425859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103908298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>n = 8192000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$132:$D$141</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$132:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>177806984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178284089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181260860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191051720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216023495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>n = 10000000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$B$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'ChunkSize Comparison'!$D$142:$D$151</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'ChunkSize Comparison'!$D$142:$D$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>220097721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220218354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221103555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226404499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242304553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4322-4AB5-8748-F05B54FBF4BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1248142543"/>
+        <c:axId val="1248141103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1248142543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-SG"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>scale</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> of log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="-25000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SG"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248141103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1248141103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>No.of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Comparisons</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-SG"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1248142543"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11205,6 +15213,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14856,6 +18944,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15045,6 +20165,153 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.8959</cdr:x>
+      <cdr:y>0.08838</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.21065</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05924EB-CD4B-E6DE-850C-51A264F1E280}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8165824" y="660952"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-SG" sz="1100" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.89166</cdr:x>
+      <cdr:y>0.0196</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99576</cdr:x>
+      <cdr:y>0.14187</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2742A0D7-49D2-CD61-1E84-64AEAC9B3593}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7832449" y="146602"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" kern="1200"/>
+            <a:t>Graph 9</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87229</cdr:x>
+      <cdr:y>0.01562</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97604</cdr:x>
+      <cdr:y>0.13789</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7497411-3BB4-FDC4-CD47-C6AEF708A188}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7687917" y="116784"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-SG">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15389,6 +20656,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>249720</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>49077</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE83CF45-863D-43C9-8C21-BE44759BB1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>534484</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>49076</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5E2620-E248-459D-A0EB-B37F83E9C8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21023,8 +26366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48666B1-08C2-4842-8ADE-E9A16FB46C8B}">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA43" sqref="AA43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ50" sqref="AJ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
